--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1124164.982523489</v>
+        <v>1121729.345599783</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673449</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>99.00641483896058</v>
+        <v>64.53478580269434</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.5745992224487</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>71.98153210089518</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -911,10 +911,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>4.01490838139791</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>164.7221985280081</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>108.8395062721534</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>197.4995743803882</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>232.2794969711036</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>35.91752934229426</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>208.4478746889067</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>274.6497191314295</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238038</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114104</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>110.7481539592877</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035252</v>
+        <v>9.75316679403528</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.52224859114689</v>
+        <v>144.2180105604039</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703404</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146341</v>
+        <v>79.00824149146345</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.4423155261894</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>277.4607323328437</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.475384768022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>83.55410938283596</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>81.13583111599705</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>66.2562870115476</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899572</v>
       </c>
       <c r="U22" t="n">
-        <v>3.475606507923219</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>106.9977768135386</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>28.75188085811982</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>139.1630968205455</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>245.8640357413585</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214426</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>176.76214411214</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>172.3645574474252</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,13 +3323,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784698</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.07327741456131</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>176.7621441121405</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576174</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3673,13 +3673,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>11.81332727248968</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,19 +3715,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>245.879692121443</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>41.74133133758772</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>55.52079624060374</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>115.8627380890771</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>211.1474991249032</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.138951213863</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1661.138951213863</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D2" t="n">
-        <v>1302.873252607113</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E2" t="n">
-        <v>917.0850000088687</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="F2" t="n">
-        <v>506.0990952192612</v>
+        <v>173.6956675186686</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450755</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189675</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213863</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158134</v>
@@ -4419,40 +4419,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>584.1404152085552</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>434.0237757962194</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>286.1106822138263</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.464090846021</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>1548.046920809061</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X4" t="n">
-        <v>1320.057369911043</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y4" t="n">
-        <v>1099.264790767513</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1236.639481552898</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>878.3737829461477</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>492.5855303479034</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>81.59962555829588</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>70.56757944369643</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>70.56757944369643</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3048.929094017065</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2717.866206673495</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W5" t="n">
-        <v>2717.866206673495</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X5" t="n">
-        <v>2717.866206673495</v>
+        <v>2382.341170533243</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697683</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.5406302391191</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C7" t="n">
-        <v>331.5406302391191</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1727.525195621623</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1505.75858019115</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.655713316793</v>
+        <v>1727.800028512342</v>
       </c>
       <c r="V7" t="n">
-        <v>961.9712251109063</v>
+        <v>1473.115540306455</v>
       </c>
       <c r="W7" t="n">
-        <v>961.9712251109063</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="X7" t="n">
-        <v>733.9816742128889</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.1890950693588</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1509.206671818183</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1150.940973211432</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>765.152720613188</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>354.1668158235804</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>343.134769708981</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,7 +4814,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3289.325488940186</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3035.795012214023</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2704.732124870452</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2704.732124870452</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2331.266366609372</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.127034633561</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1582.779602640133</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.362432603173</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1908.72459095043</v>
+        <v>2332.418671408905</v>
       </c>
       <c r="C11" t="n">
-        <v>1539.762074010019</v>
+        <v>1963.456154468493</v>
       </c>
       <c r="D11" t="n">
-        <v>1181.496375403268</v>
+        <v>1605.190455861743</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846524</v>
+        <v>1219.402203263498</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950448</v>
+        <v>808.4162984738908</v>
       </c>
       <c r="G11" t="n">
-        <v>78.51106622469182</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469182</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
-        <v>308.733397138683</v>
+        <v>308.7333971386828</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420317</v>
+        <v>704.5155104420312</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>3535.048359856279</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882237</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234591</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245566</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.78602197144</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604049</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260478</v>
+        <v>3594.490423891017</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990364</v>
+        <v>3482.623601709918</v>
       </c>
       <c r="X11" t="n">
-        <v>2685.463762990364</v>
+        <v>3109.157843448838</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.324431014552</v>
+        <v>2719.018511473027</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3935880326288</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503042</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792128</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376501</v>
+        <v>477.1621322376498</v>
       </c>
       <c r="L12" t="n">
-        <v>824.3450309810726</v>
+        <v>900.4499396649591</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.658805224962</v>
+        <v>993.4308829282799</v>
       </c>
       <c r="N12" t="n">
-        <v>1878.967112576028</v>
+        <v>1534.739190279346</v>
       </c>
       <c r="O12" t="n">
-        <v>2351.938665441777</v>
+        <v>2007.710743145095</v>
       </c>
       <c r="P12" t="n">
-        <v>2351.938665441777</v>
+        <v>2367.979045985249</v>
       </c>
       <c r="Q12" t="n">
-        <v>2542.849288629729</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>840.4693302379437</v>
+        <v>391.6657218899712</v>
       </c>
       <c r="C13" t="n">
-        <v>671.5331473100368</v>
+        <v>391.6657218899711</v>
       </c>
       <c r="D13" t="n">
-        <v>521.4165078977012</v>
+        <v>391.6657218899711</v>
       </c>
       <c r="E13" t="n">
-        <v>373.503414315308</v>
+        <v>391.6657218899711</v>
       </c>
       <c r="F13" t="n">
-        <v>336.6122541222303</v>
+        <v>245.990963748149</v>
       </c>
       <c r="G13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>368.45504734577</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888914</v>
+        <v>717.5002252888912</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
         <v>1470.753784542993</v>
@@ -5218,31 +5218,31 @@
         <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014273</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="T13" t="n">
-        <v>2076.102739014273</v>
+        <v>1855.288681564317</v>
       </c>
       <c r="U13" t="n">
-        <v>1787.012032454561</v>
+        <v>1566.197975004606</v>
       </c>
       <c r="V13" t="n">
-        <v>1532.327544248674</v>
+        <v>1311.513486798719</v>
       </c>
       <c r="W13" t="n">
-        <v>1242.910374211714</v>
+        <v>1022.096316761758</v>
       </c>
       <c r="X13" t="n">
-        <v>1242.910374211714</v>
+        <v>794.106765863741</v>
       </c>
       <c r="Y13" t="n">
-        <v>1022.117795068183</v>
+        <v>573.3141867202108</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,13 +5261,13 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708302</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608053</v>
@@ -5279,7 +5279,7 @@
         <v>372.307498725193</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
@@ -5291,7 +5291,7 @@
         <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
         <v>4150.91518802128</v>
@@ -5312,16 +5312,16 @@
         <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="15">
@@ -5361,22 +5361,22 @@
         <v>92.81162322608053</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698319</v>
+        <v>141.6400447072593</v>
       </c>
       <c r="M15" t="n">
-        <v>928.8934687107234</v>
+        <v>733.6583989593869</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.98943211006</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2097.865907110254</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2517.44942553633</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.0555510462306</v>
+        <v>494.0589900220735</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0555510462306</v>
+        <v>325.1228070941665</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9389116338948</v>
+        <v>240.7247168084737</v>
       </c>
       <c r="E16" t="n">
-        <v>260.0258180515017</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
         <v>92.81162322608053</v>
@@ -5434,19 +5434,19 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.974531143471</v>
+        <v>916.3099000622267</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778177</v>
+        <v>747.3737171343198</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654819</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830888</v>
+        <v>449.3439841395909</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>302.4540366416806</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>302.4540366416806</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>160.7422054838787</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>1318.750944035997</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="20">
@@ -5753,19 +5753,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.4638174991042</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711973</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U22" t="n">
-        <v>2040.996070613739</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1786.311582407852</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1496.894412370891</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1268.904861472874</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1048.112282329344</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835329</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,25 +6303,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>513.853600740071</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>513.853600740071</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>513.853600740071</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>554.5813165460165</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>385.6451336181096</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>235.5284942057738</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,16 +6634,16 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1729.113569660651</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1474.429081454764</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>1185.011911417804</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>957.0223605197864</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>736.2297813762563</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,16 +6838,16 @@
         <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E34" t="n">
         <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6868,10 +6868,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6880,19 +6880,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
         <v>1729.097755135313</v>
@@ -6923,58 +6923,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591808</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397185</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.342122433613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356196</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356196</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232839</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408908</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429804</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7090,55 +7090,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614389</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075824</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239597</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311996</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032927</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>482.639061290957</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>334.725967708564</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>187.8360202106537</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359457</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614394</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614394</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,19 +7406,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.899304487669</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>580.899304487669</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>430.7826650753334</v>
+        <v>444.7013164925215</v>
       </c>
       <c r="E43" t="n">
-        <v>282.8695714929404</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>135.9796239950301</v>
+        <v>149.8982754122183</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122183</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122183</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7594,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614389</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179088</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>835.5837926935567</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>666.6476097656498</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602305</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602305</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565344</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1238.024836667327</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.232257523796</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>107.2806509408322</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238033</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114108</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>238.4928147581253</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.8987994317844</v>
+        <v>1.203037462527305</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,67 +23492,67 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>50.29152613729116</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.35659541391529</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.0613636353764</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>86.11098998263078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>15.00954930701792</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>111.7546635373311</v>
       </c>
       <c r="U22" t="n">
-        <v>282.7088678813209</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>179.1866975757056</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648114</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>147.3599015160455</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>40.32043864788563</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>6.257951202385414</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>114.1584408891658</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25211,7 +25211,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>126.758702767376</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>40.64330621514773</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>153.7108110197749</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,19 +25603,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>6.257951202384959</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>123.7828069546811</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>25.74504007796168</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>32.75273492913529</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>75.37549921168775</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877629.8203187202</v>
+        <v>877629.82031872</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709915</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709915</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959986.1899709915</v>
+        <v>959986.1899709916</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709915</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709915</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719633</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719632</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719632</v>
-      </c>
       <c r="E2" t="n">
-        <v>423807.2415876635</v>
+        <v>423807.2415876632</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
@@ -26344,16 +26344,16 @@
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="N2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>464109.2948217538</v>
+      </c>
+      <c r="P2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>464109.2948217537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185157</v>
+        <v>143114.1392185149</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051383</v>
+        <v>166521.3471051387</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557887</v>
+        <v>11167.23623557922</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115351</v>
+        <v>37377.32855115307</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848914</v>
+        <v>43782.40655848928</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224748</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316935</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12287.79922451208</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>86093.72216214702</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1056153.623570193</v>
+        <v>-1056153.623570192</v>
       </c>
       <c r="C6" t="n">
         <v>272591.1221574008</v>
       </c>
       <c r="D6" t="n">
-        <v>272591.1221574007</v>
+        <v>272591.1221574</v>
       </c>
       <c r="E6" t="n">
-        <v>182311.5809824886</v>
+        <v>182101.6167386445</v>
       </c>
       <c r="F6" t="n">
-        <v>182497.0055122982</v>
+        <v>182451.1005167322</v>
       </c>
       <c r="G6" t="n">
-        <v>339432.6085804496</v>
+        <v>339397.8706550134</v>
       </c>
       <c r="H6" t="n">
-        <v>350599.8448160284</v>
+        <v>350565.106890593</v>
       </c>
       <c r="I6" t="n">
-        <v>350599.8448160285</v>
+        <v>350565.1068905927</v>
       </c>
       <c r="J6" t="n">
-        <v>133068.6424187509</v>
+        <v>133033.9044933153</v>
       </c>
       <c r="K6" t="n">
-        <v>350599.8448160286</v>
+        <v>350565.1068905929</v>
       </c>
       <c r="L6" t="n">
-        <v>350599.8448160284</v>
+        <v>350565.1068905928</v>
       </c>
       <c r="M6" t="n">
-        <v>313222.5162648748</v>
+        <v>313187.7783394397</v>
       </c>
       <c r="N6" t="n">
-        <v>306817.4382575393</v>
+        <v>306782.7003321034</v>
       </c>
       <c r="O6" t="n">
-        <v>347576.5468388038</v>
+        <v>347541.8089133681</v>
       </c>
       <c r="P6" t="n">
-        <v>350599.8448160283</v>
+        <v>350565.1068905927</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086477</v>
+        <v>981.3883278086469</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012576</v>
+        <v>122.3935669012569</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218302</v>
+        <v>145.8707812218304</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.986872406355</v>
+        <v>149.9868724063541</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173596</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364188</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063552</v>
+        <v>149.9868724063541</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173594</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406355</v>
+        <v>149.9868724063541</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173596</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364188</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>311.9153108144928</v>
+        <v>346.3869398507591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.2573809594886</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.04427615813304</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,13 +27591,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>37.5620213915281</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>86.27297343089387</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>80.92951905928852</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>88.71226382522465</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>62.32826741621685</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>168.0004407973259</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,13 +28068,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>17.26178070013046</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.285403944088623e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30393,7 +30393,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.263256414560601e-12</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485646</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9060854350899</v>
+        <v>49.90608543508988</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.5937135307177</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726054</v>
+        <v>619.8697634726052</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216969</v>
+        <v>769.0032542216967</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857423</v>
+        <v>855.664291385742</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898384</v>
+        <v>869.5098341898381</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294405</v>
+        <v>821.0534800294402</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615135</v>
+        <v>700.7501494615132</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895585</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188517</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596475</v>
+        <v>89.76921320596472</v>
       </c>
       <c r="J12" t="n">
         <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>489.2441764904019</v>
+        <v>566.1178216256411</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845327</v>
+        <v>236.0541786324434</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147138</v>
+        <v>678.1177801147136</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431807</v>
+        <v>620.3452877431805</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>497.8817840205467</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071844</v>
       </c>
       <c r="R12" t="n">
-        <v>161.8819085533296</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697585</v>
+        <v>48.42963285697583</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691788</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
         <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263708</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973093</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761894</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570608</v>
+        <v>98.28514988570603</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.09394102929609</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826901</v>
+        <v>9.339672552826897</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,7 +32069,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,31 +32081,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>187.8760176396507</v>
       </c>
       <c r="M15" t="n">
-        <v>490.9719254784744</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>615.1181176946646</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,19 +32792,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>516.654215558583</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,28 +33023,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>379.5002789321571</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>351.608251103502</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>349.7190218511037</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>568.8264345569165</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>251.8861049150245</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040314</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276249</v>
+        <v>399.7799124276247</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517094</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584696</v>
+        <v>625.3180581584693</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932476</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077537</v>
+        <v>590.9552686077534</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706244</v>
+        <v>469.5171537062436</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.928488915109</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156593</v>
+        <v>90.52095692156581</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>350.6897967105277</v>
+        <v>427.5634418457669</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>93.92014471042505</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313805</v>
+        <v>546.7760680313803</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987363</v>
+        <v>477.7490432987361</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.9073766062165</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>16.20240458936564</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701833</v>
+        <v>61.18259316701827</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.5494446190454</v>
       </c>
       <c r="P13" t="n">
-        <v>261.650907441083</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998352</v>
+        <v>96.87566713998343</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>49.32163785977657</v>
       </c>
       <c r="M15" t="n">
-        <v>348.837891556456</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>483.7764056113314</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>374.5201816365647</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>248.1585668488238</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>18.86448192629984</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>217.6338436891718</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>207.1227774066593</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>430.2720547770423</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>120.5443928316912</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
